--- a/amortizaciones.xlsx
+++ b/amortizaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COOPERATIVA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\israe\Documents\COOP-FAML-UNIDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4854A52-072C-4710-A8B5-DACD64956A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B0A7CA-AB2B-4C5A-96D6-120870FDDDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{EDDE8B1F-D9E4-4E13-B583-99C8BBAD2897}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{EDDE8B1F-D9E4-4E13-B583-99C8BBAD2897}"/>
   </bookViews>
   <sheets>
     <sheet name="TASAS" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -314,7 +314,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -382,18 +382,18 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -947,44 +947,44 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -995,7 +995,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>7.8666666666666659E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>1.0275000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>9.9166666666666656E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>1.3975E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>7.9166666666666673E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>6.2499999999999995E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>27</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>4.1583333333333333E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>4.1583333333333333E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>29</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>8.8583333333333344E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>30</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>2.3525000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>31</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>2.0741666666666669E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>32</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>1.8374999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1155,79 +1155,79 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:H248"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16.649999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3">
         <f>+SUM(C8:C248)</f>
-        <v>2156.768662225983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>753.24410432276795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <f>+B1/100/12</f>
-        <v>2.0833333333333332E-2</v>
+        <v>1.3874999999999998E-2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="3">
         <f>+SUM(D8:D248)</f>
-        <v>5000.0000000000346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5499.9999999999663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="3">
         <f>+SUM(B8:B248)</f>
-        <v>7156.7686622260217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6253.2441043227318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <f>IFERROR(B2*((B3*(1+B3)^B4)/((1+B3)^B4-1)),"")</f>
-        <v>198.79912950627829</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>347.40245024015189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1244,778 +1244,724 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="E8">
         <f>+B2</f>
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" cm="1">
-        <f t="array" ref="A9:A44">+_xlfn.SEQUENCE(B4)</f>
+        <f t="array" ref="A9:A26">+_xlfn.SEQUENCE(B4)</f>
         <v>1</v>
       </c>
       <c r="B9" s="3">
         <f>+IF(A9&lt;&gt;"",$B$5,"")</f>
-        <v>198.79912950627829</v>
+        <v>347.40245024015189</v>
       </c>
       <c r="C9" s="3">
         <f>IF(A9&lt;&gt;"",+E8*$B$3,"")</f>
-        <v>104.16666666666666</v>
+        <v>76.312499999999986</v>
       </c>
       <c r="D9" s="3">
         <f>+IF(A9&lt;&gt;"",B9-C9,"")</f>
-        <v>94.632462839611634</v>
+        <v>271.08995024015189</v>
       </c>
       <c r="E9" s="3">
         <f>+IF(A9&lt;&gt;"",E8-D9,"")</f>
-        <v>4905.3675371603886</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5228.9100497598483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" ref="B10:B73" si="0">+IF(A10&lt;&gt;"",$B$5,"")</f>
-        <v>198.79912950627829</v>
+        <v>347.40245024015189</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ref="C10:C73" si="1">IF(A10&lt;&gt;"",+E9*$B$3,"")</f>
-        <v>102.19515702417476</v>
+        <v>72.551126940417888</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ref="D10:D73" si="2">+IF(A10&lt;&gt;"",B10-C10,"")</f>
-        <v>96.603972482103529</v>
+        <v>274.85132329973402</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ref="E10:E73" si="3">+IF(A10&lt;&gt;"",E9-D10,"")</f>
-        <v>4808.7635646782846</v>
+        <v>4954.0587264601145</v>
       </c>
       <c r="H10">
         <f>355.59*34</f>
         <v>12090.06</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
+        <v>347.40245024015189</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="1"/>
-        <v>100.18257426413092</v>
+        <v>68.737564829634081</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="2"/>
-        <v>98.616555242147371</v>
+        <v>278.6648854105178</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="3"/>
-        <v>4710.1470094361375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4675.3938410495966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
+        <v>347.40245024015189</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="1"/>
-        <v>98.128062696586198</v>
+        <v>64.871089544563148</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="2"/>
-        <v>100.67106680969209</v>
+        <v>282.53136069558877</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="3"/>
-        <v>4609.4759426264454</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4392.8624803540079</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
+        <v>347.40245024015189</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="1"/>
-        <v>96.030748804717604</v>
+        <v>60.950966914911852</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="2"/>
-        <v>102.76838070156069</v>
+        <v>286.45148332524002</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="3"/>
-        <v>4506.7075619248844</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4106.4109970287682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
+        <v>347.40245024015189</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="1"/>
-        <v>93.889740873435088</v>
+        <v>56.976452583774154</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="2"/>
-        <v>104.9093886328432</v>
+        <v>290.42599765637772</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="3"/>
-        <v>4401.7981732920416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3815.9849993723906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
+        <v>347.40245024015189</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="1"/>
-        <v>91.704128610250862</v>
+        <v>52.94679186629191</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="2"/>
-        <v>107.09500089602743</v>
+        <v>294.45565837385999</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="3"/>
-        <v>4294.7031723960145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3521.5293409985306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
+        <v>347.40245024015189</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="1"/>
-        <v>89.472982758250296</v>
+        <v>48.861219606354609</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="2"/>
-        <v>109.32614674802799</v>
+        <v>298.54123063379728</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="3"/>
-        <v>4185.3770256479866</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3222.9881103647335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
+        <v>347.40245024015189</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="1"/>
-        <v>87.195354700999715</v>
+        <v>44.718960031310672</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="2"/>
-        <v>111.60377480527858</v>
+        <v>302.68349020884125</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="3"/>
-        <v>4073.773250842708</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2920.3046201558923</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10</v>
       </c>
       <c r="B18" s="3">
         <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
+        <v>347.40245024015189</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" si="1"/>
-        <v>84.870276059223073</v>
+        <v>40.519226604663004</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="2"/>
-        <v>113.92885344705522</v>
+        <v>306.88322363548889</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="3"/>
-        <v>3959.8443973956528</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2613.4213965204035</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>11</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
+        <v>347.40245024015189</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="1"/>
-        <v>82.49675827907609</v>
+        <v>36.261221876720597</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="2"/>
-        <v>116.3023712272022</v>
+        <v>311.14122836343131</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="3"/>
-        <v>3843.5420261684508</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2302.2801681569722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>12</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
+        <v>347.40245024015189</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" si="1"/>
-        <v>80.073792211842715</v>
+        <v>31.944137333177984</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="2"/>
-        <v>118.72533729443558</v>
+        <v>315.4583129069739</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="3"/>
-        <v>3724.8166888740152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1986.8218552499984</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>13</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
+        <v>347.40245024015189</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" si="1"/>
-        <v>77.600347684875317</v>
+        <v>27.567153241593726</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="2"/>
-        <v>121.19878182140297</v>
+        <v>319.83529699855819</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="3"/>
-        <v>3603.6179070526123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1666.9865582514403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
+        <v>347.40245024015189</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" si="1"/>
-        <v>75.075373063596089</v>
+        <v>23.129438495738732</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="2"/>
-        <v>123.7237564426822</v>
+        <v>324.27301174441317</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="3"/>
-        <v>3479.89415060993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1342.7135465070271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>15</v>
       </c>
       <c r="B23" s="3">
         <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
+        <v>347.40245024015189</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" si="1"/>
-        <v>72.497794804373541</v>
+        <v>18.630150457785</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="2"/>
-        <v>126.30133470190475</v>
+        <v>328.77229978236687</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="3"/>
-        <v>3353.5928159080254</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1013.9412467246602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>16</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
+        <v>347.40245024015189</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" si="1"/>
-        <v>69.866516998083853</v>
+        <v>14.06843479830466</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="2"/>
-        <v>128.93261250819444</v>
+        <v>333.33401544184721</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="3"/>
-        <v>3224.6602033998311</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>680.60723128281302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>17</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
+        <v>347.40245024015189</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" si="1"/>
-        <v>67.180420904163142</v>
+        <v>9.4434253340490297</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="2"/>
-        <v>131.61870860211513</v>
+        <v>337.95902490610285</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="3"/>
-        <v>3093.041494797716</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>342.64820637671016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>18</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
+        <v>347.40245024015189</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" si="1"/>
-        <v>64.438364474952408</v>
+        <v>4.7542438634768533</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="2"/>
-        <v>134.36076503132588</v>
+        <v>342.64820637667503</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="3"/>
-        <v>2958.68072976639</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>19</v>
-      </c>
-      <c r="B27" s="3">
-        <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
-      </c>
-      <c r="C27" s="3">
-        <f t="shared" si="1"/>
-        <v>61.639181870133122</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="2"/>
-        <v>137.15994763614518</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" si="3"/>
-        <v>2821.5207821302447</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>20</v>
-      </c>
-      <c r="B28" s="3">
-        <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
-      </c>
-      <c r="C28" s="3">
-        <f t="shared" si="1"/>
-        <v>58.781682961046762</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" si="2"/>
-        <v>140.01744654523154</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" si="3"/>
-        <v>2681.5033355850132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>21</v>
-      </c>
-      <c r="B29" s="3">
-        <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
-      </c>
-      <c r="C29" s="3">
-        <f t="shared" si="1"/>
-        <v>55.864652824687774</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" si="2"/>
-        <v>142.93447668159052</v>
-      </c>
-      <c r="E29" s="3">
-        <f t="shared" si="3"/>
-        <v>2538.5688589034226</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>22</v>
-      </c>
-      <c r="B30" s="3">
-        <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
-      </c>
-      <c r="C30" s="3">
-        <f t="shared" si="1"/>
-        <v>52.886851227154636</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" si="2"/>
-        <v>145.91227827912365</v>
-      </c>
-      <c r="E30" s="3">
-        <f t="shared" si="3"/>
-        <v>2392.6565806242988</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>23</v>
-      </c>
-      <c r="B31" s="3">
-        <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
-      </c>
-      <c r="C31" s="3">
-        <f t="shared" si="1"/>
-        <v>49.847012096339554</v>
-      </c>
-      <c r="D31" s="3">
-        <f t="shared" si="2"/>
-        <v>148.95211740993875</v>
-      </c>
-      <c r="E31" s="3">
-        <f t="shared" si="3"/>
-        <v>2243.7044632143602</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>24</v>
-      </c>
-      <c r="B32" s="3">
-        <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
-      </c>
-      <c r="C32" s="3">
-        <f t="shared" si="1"/>
-        <v>46.743842983632504</v>
-      </c>
-      <c r="D32" s="3">
-        <f t="shared" si="2"/>
-        <v>152.05528652264579</v>
-      </c>
-      <c r="E32" s="3">
-        <f t="shared" si="3"/>
-        <v>2091.6491766917143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>25</v>
-      </c>
-      <c r="B33" s="3">
-        <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
-      </c>
-      <c r="C33" s="3">
-        <f t="shared" si="1"/>
-        <v>43.576024514410712</v>
-      </c>
-      <c r="D33" s="3">
-        <f t="shared" si="2"/>
-        <v>155.22310499186759</v>
-      </c>
-      <c r="E33" s="3">
-        <f t="shared" si="3"/>
-        <v>1936.4260716998467</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>26</v>
-      </c>
-      <c r="B34" s="3">
-        <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
-      </c>
-      <c r="C34" s="3">
-        <f t="shared" si="1"/>
-        <v>40.34220982708014</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" si="2"/>
-        <v>158.45691967919817</v>
-      </c>
-      <c r="E34" s="3">
-        <f t="shared" si="3"/>
-        <v>1777.9691520206486</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>27</v>
-      </c>
-      <c r="B35" s="3">
-        <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
-      </c>
-      <c r="C35" s="3">
-        <f t="shared" si="1"/>
-        <v>37.041024000430177</v>
-      </c>
-      <c r="D35" s="3">
-        <f t="shared" si="2"/>
-        <v>161.75810550584811</v>
-      </c>
-      <c r="E35" s="3">
-        <f t="shared" si="3"/>
-        <v>1616.2110465148005</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>28</v>
-      </c>
-      <c r="B36" s="3">
-        <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
-      </c>
-      <c r="C36" s="3">
-        <f t="shared" si="1"/>
-        <v>33.671063469058339</v>
-      </c>
-      <c r="D36" s="3">
-        <f t="shared" si="2"/>
-        <v>165.12806603721995</v>
-      </c>
-      <c r="E36" s="3">
-        <f t="shared" si="3"/>
-        <v>1451.0829804775806</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>29</v>
-      </c>
-      <c r="B37" s="3">
-        <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
-      </c>
-      <c r="C37" s="3">
-        <f t="shared" si="1"/>
-        <v>30.230895426616261</v>
-      </c>
-      <c r="D37" s="3">
-        <f t="shared" si="2"/>
-        <v>168.56823407966203</v>
-      </c>
-      <c r="E37" s="3">
-        <f t="shared" si="3"/>
-        <v>1282.5147463979185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>30</v>
-      </c>
-      <c r="B38" s="3">
-        <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
-      </c>
-      <c r="C38" s="3">
-        <f t="shared" si="1"/>
-        <v>26.719057216623302</v>
-      </c>
-      <c r="D38" s="3">
-        <f t="shared" si="2"/>
-        <v>172.08007228965499</v>
-      </c>
-      <c r="E38" s="3">
-        <f t="shared" si="3"/>
-        <v>1110.4346741082636</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>31</v>
-      </c>
-      <c r="B39" s="3">
-        <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
-      </c>
-      <c r="C39" s="3">
-        <f t="shared" si="1"/>
-        <v>23.134055710588825</v>
-      </c>
-      <c r="D39" s="3">
-        <f t="shared" si="2"/>
-        <v>175.66507379568947</v>
-      </c>
-      <c r="E39" s="3">
-        <f t="shared" si="3"/>
-        <v>934.76960031257408</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>32</v>
-      </c>
-      <c r="B40" s="3">
-        <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
-      </c>
-      <c r="C40" s="3">
-        <f t="shared" si="1"/>
-        <v>19.474366673178626</v>
-      </c>
-      <c r="D40" s="3">
-        <f t="shared" si="2"/>
-        <v>179.32476283309967</v>
-      </c>
-      <c r="E40" s="3">
-        <f t="shared" si="3"/>
-        <v>755.44483747947447</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>33</v>
-      </c>
-      <c r="B41" s="3">
-        <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
-      </c>
-      <c r="C41" s="3">
-        <f t="shared" si="1"/>
-        <v>15.738434114155718</v>
-      </c>
-      <c r="D41" s="3">
-        <f t="shared" si="2"/>
-        <v>183.06069539212257</v>
-      </c>
-      <c r="E41" s="3">
-        <f t="shared" si="3"/>
-        <v>572.38414208735185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>34</v>
-      </c>
-      <c r="B42" s="3">
-        <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
-      </c>
-      <c r="C42" s="3">
-        <f t="shared" si="1"/>
-        <v>11.92466962681983</v>
-      </c>
-      <c r="D42" s="3">
-        <f t="shared" si="2"/>
-        <v>186.87445987945847</v>
-      </c>
-      <c r="E42" s="3">
-        <f t="shared" si="3"/>
-        <v>385.50968220789338</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>35</v>
-      </c>
-      <c r="B43" s="3">
-        <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
-      </c>
-      <c r="C43" s="3">
-        <f t="shared" si="1"/>
-        <v>8.0314517126644454</v>
-      </c>
-      <c r="D43" s="3">
-        <f t="shared" si="2"/>
-        <v>190.76767779361384</v>
-      </c>
-      <c r="E43" s="3">
-        <f t="shared" si="3"/>
-        <v>194.74200441427953</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>36</v>
-      </c>
-      <c r="B44" s="3">
-        <f t="shared" si="0"/>
-        <v>198.79912950627829</v>
-      </c>
-      <c r="C44" s="3">
-        <f t="shared" si="1"/>
-        <v>4.0571250919641564</v>
-      </c>
-      <c r="D44" s="3">
-        <f t="shared" si="2"/>
-        <v>194.74200441431412</v>
-      </c>
-      <c r="E44" s="3">
-        <f t="shared" si="3"/>
-        <v>-3.4589220376801677E-11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.5129232855979353E-11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E27" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E28" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E29" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D30" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E30" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D31" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E31" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D32" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E32" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D33" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E33" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E34" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D35" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E35" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D36" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E36" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D37" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E37" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C38" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D38" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E38" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C39" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D39" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E39" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C40" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D40" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E40" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C41" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D41" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E41" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C42" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D42" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E42" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C43" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D43" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E43" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D44" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E44" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2033,7 +1979,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2051,7 +1997,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2069,7 +2015,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2087,7 +2033,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2105,7 +2051,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2123,7 +2069,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2141,7 +2087,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2159,7 +2105,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2177,7 +2123,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2195,7 +2141,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2213,7 +2159,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2231,7 +2177,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2249,7 +2195,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2267,7 +2213,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2285,7 +2231,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2303,7 +2249,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2321,7 +2267,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2339,7 +2285,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2357,7 +2303,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2375,7 +2321,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2393,7 +2339,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2411,7 +2357,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2429,7 +2375,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2447,7 +2393,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2465,7 +2411,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2483,7 +2429,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2501,7 +2447,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2519,7 +2465,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2537,7 +2483,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="str">
         <f t="shared" ref="B74:B137" si="4">+IF(A74&lt;&gt;"",$B$5,"")</f>
         <v/>
@@ -2555,7 +2501,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2573,7 +2519,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2591,7 +2537,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2609,7 +2555,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2627,7 +2573,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2645,7 +2591,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2663,7 +2609,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2681,7 +2627,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2699,7 +2645,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2717,7 +2663,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2735,7 +2681,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2753,7 +2699,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2771,7 +2717,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2789,7 +2735,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2807,7 +2753,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2825,7 +2771,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2843,7 +2789,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2861,7 +2807,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2879,7 +2825,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2897,7 +2843,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2915,7 +2861,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2933,7 +2879,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2951,7 +2897,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2969,7 +2915,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2987,7 +2933,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3005,7 +2951,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3023,7 +2969,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3041,7 +2987,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3059,7 +3005,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3077,7 +3023,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3095,7 +3041,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B105" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3113,7 +3059,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3131,7 +3077,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3149,7 +3095,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3167,7 +3113,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3185,7 +3131,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3203,7 +3149,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3221,7 +3167,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3239,7 +3185,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3257,7 +3203,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3275,7 +3221,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3293,7 +3239,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3311,7 +3257,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3329,7 +3275,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3347,7 +3293,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B119" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3365,7 +3311,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3383,7 +3329,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B121" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3401,7 +3347,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B122" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3419,7 +3365,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B123" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3437,7 +3383,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3455,7 +3401,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B125" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3473,7 +3419,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B126" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3491,7 +3437,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B127" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3509,7 +3455,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B128" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3527,7 +3473,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B129" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3545,7 +3491,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B130" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3563,7 +3509,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3581,7 +3527,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B132" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3599,7 +3545,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B133" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3617,7 +3563,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B134" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3635,7 +3581,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B135" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3653,7 +3599,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B136" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3671,7 +3617,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3689,7 +3635,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B138" s="3" t="str">
         <f t="shared" ref="B138:B201" si="8">+IF(A138&lt;&gt;"",$B$5,"")</f>
         <v/>
@@ -3707,7 +3653,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B139" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3725,7 +3671,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B140" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3743,7 +3689,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B141" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3761,7 +3707,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B142" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3779,7 +3725,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3797,7 +3743,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B144" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3815,7 +3761,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B145" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3833,7 +3779,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B146" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3851,7 +3797,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B147" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3869,7 +3815,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B148" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3887,7 +3833,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B149" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3905,7 +3851,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3923,7 +3869,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B151" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3941,7 +3887,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B152" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3959,7 +3905,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B153" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3977,7 +3923,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B154" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3995,7 +3941,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B155" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4013,7 +3959,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B156" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4031,7 +3977,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B157" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4049,7 +3995,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B158" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4067,7 +4013,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B159" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4085,7 +4031,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B160" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4103,7 +4049,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B161" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4121,7 +4067,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B162" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4139,7 +4085,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B163" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4157,7 +4103,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B164" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4175,7 +4121,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B165" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4193,7 +4139,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B166" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4211,7 +4157,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B167" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4229,7 +4175,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B168" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4247,7 +4193,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B169" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4265,7 +4211,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B170" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4283,7 +4229,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B171" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4301,7 +4247,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B172" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4319,7 +4265,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B173" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4337,7 +4283,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B174" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4355,7 +4301,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B175" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4373,7 +4319,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B176" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4391,7 +4337,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B177" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4409,7 +4355,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B178" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4427,7 +4373,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B179" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4445,7 +4391,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B180" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4463,7 +4409,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B181" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4481,7 +4427,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B182" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4499,7 +4445,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B183" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4517,7 +4463,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B184" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4535,7 +4481,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B185" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4553,7 +4499,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B186" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4571,7 +4517,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B187" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4589,7 +4535,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B188" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4607,7 +4553,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B189" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4625,7 +4571,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B190" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4643,7 +4589,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B191" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4661,7 +4607,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B192" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4679,7 +4625,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B193" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4697,7 +4643,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B194" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4715,7 +4661,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B195" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4733,7 +4679,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B196" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4751,7 +4697,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B197" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4769,7 +4715,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B198" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4787,7 +4733,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B199" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4805,7 +4751,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B200" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4823,7 +4769,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B201" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4841,7 +4787,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B202" s="3" t="str">
         <f t="shared" ref="B202:B248" si="12">+IF(A202&lt;&gt;"",$B$5,"")</f>
         <v/>
@@ -4859,7 +4805,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B203" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4877,7 +4823,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B204" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4895,7 +4841,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B205" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4913,7 +4859,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B206" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4931,7 +4877,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B207" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4949,7 +4895,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B208" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4967,7 +4913,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B209" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4985,7 +4931,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B210" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5003,7 +4949,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B211" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5021,7 +4967,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B212" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5039,7 +4985,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B213" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5057,7 +5003,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B214" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5075,7 +5021,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B215" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5093,7 +5039,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B216" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5111,7 +5057,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B217" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5129,7 +5075,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B218" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5147,7 +5093,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B219" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5165,7 +5111,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B220" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5183,7 +5129,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B221" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5201,7 +5147,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B222" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5219,7 +5165,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B223" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5237,7 +5183,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B224" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5255,7 +5201,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B225" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5273,7 +5219,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B226" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5291,7 +5237,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B227" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5309,7 +5255,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B228" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5327,7 +5273,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B229" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5345,7 +5291,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B230" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5363,7 +5309,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B231" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5381,7 +5327,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B232" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5399,7 +5345,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B233" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5417,7 +5363,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B234" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5435,7 +5381,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B235" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5453,7 +5399,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B236" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5471,7 +5417,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B237" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5489,7 +5435,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B238" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5507,7 +5453,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B239" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5525,7 +5471,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B240" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5543,7 +5489,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B241" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5561,7 +5507,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B242" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5579,7 +5525,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B243" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5597,7 +5543,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B244" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5615,7 +5561,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B245" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5633,7 +5579,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B246" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5651,7 +5597,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B247" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5669,7 +5615,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B248" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5708,12 +5654,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -5721,7 +5667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5736,7 +5682,7 @@
         <v>1927.0833333333355</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -5752,7 +5698,7 @@
         <v>4999.9999999999964</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -5767,7 +5713,7 @@
         <v>6927.0833333333348</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -5776,7 +5722,7 @@
         <v>138.88888888888889</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -5793,7 +5739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -5802,7 +5748,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" cm="1">
         <f t="array" ref="A9:A44">+_xlfn.SEQUENCE(B4)</f>
         <v>1</v>
@@ -5824,7 +5770,7 @@
         <v>4861.1111111111113</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -5845,7 +5791,7 @@
         <v>4722.2222222222226</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -5866,7 +5812,7 @@
         <v>4583.3333333333339</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -5887,7 +5833,7 @@
         <v>4444.4444444444453</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -5908,7 +5854,7 @@
         <v>4305.5555555555566</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
@@ -5929,7 +5875,7 @@
         <v>4166.6666666666679</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7</v>
       </c>
@@ -5950,7 +5896,7 @@
         <v>4027.7777777777792</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -5971,7 +5917,7 @@
         <v>3888.8888888888905</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9</v>
       </c>
@@ -5992,7 +5938,7 @@
         <v>3750.0000000000018</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10</v>
       </c>
@@ -6013,7 +5959,7 @@
         <v>3611.1111111111131</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>11</v>
       </c>
@@ -6034,7 +5980,7 @@
         <v>3472.2222222222244</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>12</v>
       </c>
@@ -6055,7 +6001,7 @@
         <v>3333.3333333333358</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>13</v>
       </c>
@@ -6076,7 +6022,7 @@
         <v>3194.4444444444471</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14</v>
       </c>
@@ -6097,7 +6043,7 @@
         <v>3055.5555555555584</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>15</v>
       </c>
@@ -6118,7 +6064,7 @@
         <v>2916.6666666666697</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>16</v>
       </c>
@@ -6139,7 +6085,7 @@
         <v>2777.777777777781</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>17</v>
       </c>
@@ -6160,7 +6106,7 @@
         <v>2638.8888888888923</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>18</v>
       </c>
@@ -6181,7 +6127,7 @@
         <v>2500.0000000000036</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>19</v>
       </c>
@@ -6202,7 +6148,7 @@
         <v>2361.111111111115</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>20</v>
       </c>
@@ -6223,7 +6169,7 @@
         <v>2222.2222222222263</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>21</v>
       </c>
@@ -6244,7 +6190,7 @@
         <v>2083.3333333333376</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>22</v>
       </c>
@@ -6265,7 +6211,7 @@
         <v>1944.4444444444487</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>23</v>
       </c>
@@ -6286,7 +6232,7 @@
         <v>1805.5555555555597</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>24</v>
       </c>
@@ -6307,7 +6253,7 @@
         <v>1666.6666666666708</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>25</v>
       </c>
@@ -6328,7 +6274,7 @@
         <v>1527.7777777777819</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>26</v>
       </c>
@@ -6349,7 +6295,7 @@
         <v>1388.888888888893</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>27</v>
       </c>
@@ -6370,7 +6316,7 @@
         <v>1250.0000000000041</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>28</v>
       </c>
@@ -6391,7 +6337,7 @@
         <v>1111.1111111111152</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>29</v>
       </c>
@@ -6412,7 +6358,7 @@
         <v>972.22222222222626</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>30</v>
       </c>
@@ -6433,7 +6379,7 @@
         <v>833.33333333333735</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>31</v>
       </c>
@@ -6454,7 +6400,7 @@
         <v>694.44444444444844</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>32</v>
       </c>
@@ -6475,7 +6421,7 @@
         <v>555.55555555555952</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>33</v>
       </c>
@@ -6496,7 +6442,7 @@
         <v>416.66666666667061</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>34</v>
       </c>
@@ -6517,7 +6463,7 @@
         <v>277.77777777778169</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>35</v>
       </c>
@@ -6538,7 +6484,7 @@
         <v>138.88888888889281</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>36</v>
       </c>
@@ -6559,7 +6505,7 @@
         <v>3.922195901395753E-12</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6577,7 +6523,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6595,7 +6541,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6613,7 +6559,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6631,7 +6577,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6649,7 +6595,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6667,7 +6613,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6685,7 +6631,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6703,7 +6649,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6721,7 +6667,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6739,7 +6685,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6757,7 +6703,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6775,7 +6721,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6793,7 +6739,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6811,7 +6757,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6829,7 +6775,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6847,7 +6793,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6865,7 +6811,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6883,7 +6829,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6901,7 +6847,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6919,7 +6865,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6937,7 +6883,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6955,7 +6901,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6973,7 +6919,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6991,7 +6937,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7009,7 +6955,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7027,7 +6973,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7045,7 +6991,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7063,7 +7009,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7081,7 +7027,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="str">
         <f t="shared" ref="B74:B137" si="4">IF(A74&lt;&gt;"",C74+D74,"")</f>
         <v/>
@@ -7099,7 +7045,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7117,7 +7063,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7135,7 +7081,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7153,7 +7099,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7171,7 +7117,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7189,7 +7135,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7207,7 +7153,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7225,7 +7171,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7243,7 +7189,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7261,7 +7207,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7279,7 +7225,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7297,7 +7243,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7315,7 +7261,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7333,7 +7279,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7351,7 +7297,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7369,7 +7315,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7387,7 +7333,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7405,7 +7351,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7423,7 +7369,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7441,7 +7387,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7459,7 +7405,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7477,7 +7423,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7495,7 +7441,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7513,7 +7459,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7531,7 +7477,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7549,7 +7495,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7567,7 +7513,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7585,7 +7531,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7603,7 +7549,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7621,7 +7567,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7639,7 +7585,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B105" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7657,7 +7603,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7675,7 +7621,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7693,7 +7639,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7711,7 +7657,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7729,7 +7675,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7747,7 +7693,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7765,7 +7711,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7783,7 +7729,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7801,7 +7747,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7819,7 +7765,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7837,7 +7783,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7855,7 +7801,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7873,7 +7819,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7891,7 +7837,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B119" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7909,7 +7855,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7927,7 +7873,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B121" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7945,7 +7891,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B122" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7963,7 +7909,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B123" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7981,7 +7927,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7999,7 +7945,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B125" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -8017,7 +7963,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B126" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -8035,7 +7981,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B127" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -8053,7 +7999,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B128" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -8071,7 +8017,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B129" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -8089,7 +8035,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B130" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -8107,7 +8053,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -8125,7 +8071,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B132" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -8143,7 +8089,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B133" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -8161,7 +8107,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B134" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -8179,7 +8125,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B135" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -8197,7 +8143,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B136" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -8215,7 +8161,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -8233,7 +8179,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B138" s="3" t="str">
         <f t="shared" ref="B138:B201" si="8">IF(A138&lt;&gt;"",C138+D138,"")</f>
         <v/>
@@ -8251,7 +8197,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B139" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8269,7 +8215,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B140" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8287,7 +8233,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B141" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8305,7 +8251,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B142" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8323,7 +8269,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8341,7 +8287,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B144" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8359,7 +8305,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B145" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8377,7 +8323,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B146" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8395,7 +8341,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B147" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8413,7 +8359,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B148" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8431,7 +8377,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B149" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8449,7 +8395,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8467,7 +8413,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B151" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8485,7 +8431,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B152" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8503,7 +8449,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B153" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8521,7 +8467,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B154" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8539,7 +8485,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B155" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8557,7 +8503,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B156" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8575,7 +8521,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B157" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8593,7 +8539,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B158" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8611,7 +8557,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B159" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8629,7 +8575,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B160" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8647,7 +8593,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B161" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8665,7 +8611,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B162" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8683,7 +8629,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B163" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8701,7 +8647,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B164" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8719,7 +8665,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B165" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8737,7 +8683,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B166" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8755,7 +8701,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B167" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8773,7 +8719,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B168" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8791,7 +8737,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B169" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8809,7 +8755,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B170" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8827,7 +8773,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B171" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8845,7 +8791,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B172" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8863,7 +8809,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B173" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8881,7 +8827,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B174" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8899,7 +8845,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B175" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8917,7 +8863,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B176" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8935,7 +8881,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B177" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8953,7 +8899,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B178" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8971,7 +8917,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B179" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8989,7 +8935,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B180" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9007,7 +8953,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B181" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9025,7 +8971,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B182" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9043,7 +8989,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B183" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9061,7 +9007,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B184" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9079,7 +9025,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B185" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9097,7 +9043,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B186" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9115,7 +9061,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B187" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9133,7 +9079,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B188" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9151,7 +9097,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B189" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9169,7 +9115,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B190" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9187,7 +9133,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B191" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9205,7 +9151,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B192" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9223,7 +9169,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B193" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9241,7 +9187,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B194" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9259,7 +9205,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B195" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9277,7 +9223,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B196" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9295,7 +9241,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B197" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9313,7 +9259,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B198" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9331,7 +9277,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B199" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9349,7 +9295,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B200" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9367,7 +9313,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B201" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9385,7 +9331,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B202" s="3" t="str">
         <f t="shared" ref="B202:B248" si="12">IF(A202&lt;&gt;"",C202+D202,"")</f>
         <v/>
@@ -9403,7 +9349,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B203" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9421,7 +9367,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B204" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9439,7 +9385,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B205" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9457,7 +9403,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B206" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9475,7 +9421,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B207" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9493,7 +9439,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B208" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9511,7 +9457,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B209" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9529,7 +9475,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B210" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9547,7 +9493,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B211" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9565,7 +9511,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B212" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9583,7 +9529,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B213" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9601,7 +9547,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B214" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9619,7 +9565,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B215" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9637,7 +9583,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B216" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9655,7 +9601,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B217" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9673,7 +9619,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B218" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9691,7 +9637,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B219" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9709,7 +9655,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B220" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9727,7 +9673,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B221" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9745,7 +9691,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B222" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9763,7 +9709,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B223" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9781,7 +9727,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B224" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9799,7 +9745,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B225" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9817,7 +9763,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B226" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9835,7 +9781,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B227" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9853,7 +9799,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B228" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9871,7 +9817,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B229" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9889,7 +9835,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B230" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9907,7 +9853,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B231" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9925,7 +9871,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B232" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9943,7 +9889,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B233" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9961,7 +9907,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B234" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9979,7 +9925,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B235" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -9997,7 +9943,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B236" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -10015,7 +9961,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B237" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -10033,7 +9979,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B238" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -10051,7 +9997,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B239" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -10069,7 +10015,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B240" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -10087,7 +10033,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B241" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -10105,7 +10051,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B242" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -10123,7 +10069,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B243" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -10141,7 +10087,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B244" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -10159,7 +10105,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B245" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -10177,7 +10123,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B246" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -10195,7 +10141,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B247" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -10213,7 +10159,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B248" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -10248,16 +10194,16 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:E248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -10265,7 +10211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -10280,7 +10226,7 @@
         <v>3749.9999999999982</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -10296,7 +10242,7 @@
         <v>4999.9999999999964</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -10311,7 +10257,7 @@
         <v>8750</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -10320,7 +10266,7 @@
         <v>243.05555555555554</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -10337,7 +10283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -10346,7 +10292,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" cm="1">
         <f t="array" ref="A9:A44">+_xlfn.SEQUENCE(B4)</f>
         <v>1</v>
@@ -10368,7 +10314,7 @@
         <v>4861.1111111111113</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -10389,7 +10335,7 @@
         <v>4722.2222222222226</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -10410,7 +10356,7 @@
         <v>4583.3333333333339</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -10431,7 +10377,7 @@
         <v>4444.4444444444453</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -10452,7 +10398,7 @@
         <v>4305.5555555555566</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
@@ -10473,7 +10419,7 @@
         <v>4166.6666666666679</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7</v>
       </c>
@@ -10494,7 +10440,7 @@
         <v>4027.7777777777792</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -10515,7 +10461,7 @@
         <v>3888.8888888888905</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9</v>
       </c>
@@ -10536,7 +10482,7 @@
         <v>3750.0000000000018</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10</v>
       </c>
@@ -10557,7 +10503,7 @@
         <v>3611.1111111111131</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>11</v>
       </c>
@@ -10578,7 +10524,7 @@
         <v>3472.2222222222244</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>12</v>
       </c>
@@ -10599,7 +10545,7 @@
         <v>3333.3333333333358</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>13</v>
       </c>
@@ -10620,7 +10566,7 @@
         <v>3194.4444444444471</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14</v>
       </c>
@@ -10641,7 +10587,7 @@
         <v>3055.5555555555584</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>15</v>
       </c>
@@ -10662,7 +10608,7 @@
         <v>2916.6666666666697</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>16</v>
       </c>
@@ -10683,7 +10629,7 @@
         <v>2777.777777777781</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>17</v>
       </c>
@@ -10704,7 +10650,7 @@
         <v>2638.8888888888923</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>18</v>
       </c>
@@ -10725,7 +10671,7 @@
         <v>2500.0000000000036</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>19</v>
       </c>
@@ -10746,7 +10692,7 @@
         <v>2361.111111111115</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>20</v>
       </c>
@@ -10767,7 +10713,7 @@
         <v>2222.2222222222263</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>21</v>
       </c>
@@ -10788,7 +10734,7 @@
         <v>2083.3333333333376</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>22</v>
       </c>
@@ -10809,7 +10755,7 @@
         <v>1944.4444444444487</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>23</v>
       </c>
@@ -10830,7 +10776,7 @@
         <v>1805.5555555555597</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>24</v>
       </c>
@@ -10851,7 +10797,7 @@
         <v>1666.6666666666708</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>25</v>
       </c>
@@ -10872,7 +10818,7 @@
         <v>1527.7777777777819</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>26</v>
       </c>
@@ -10893,7 +10839,7 @@
         <v>1388.888888888893</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>27</v>
       </c>
@@ -10914,7 +10860,7 @@
         <v>1250.0000000000041</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>28</v>
       </c>
@@ -10935,7 +10881,7 @@
         <v>1111.1111111111152</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>29</v>
       </c>
@@ -10956,7 +10902,7 @@
         <v>972.22222222222626</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>30</v>
       </c>
@@ -10977,7 +10923,7 @@
         <v>833.33333333333735</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>31</v>
       </c>
@@ -10998,7 +10944,7 @@
         <v>694.44444444444844</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>32</v>
       </c>
@@ -11019,7 +10965,7 @@
         <v>555.55555555555952</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>33</v>
       </c>
@@ -11040,7 +10986,7 @@
         <v>416.66666666667061</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>34</v>
       </c>
@@ -11061,7 +11007,7 @@
         <v>277.77777777778169</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>35</v>
       </c>
@@ -11082,7 +11028,7 @@
         <v>138.88888888889281</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>36</v>
       </c>
@@ -11103,7 +11049,7 @@
         <v>3.922195901395753E-12</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11121,7 +11067,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11139,7 +11085,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11157,7 +11103,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11175,7 +11121,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11193,7 +11139,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11211,7 +11157,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11229,7 +11175,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11247,7 +11193,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11265,7 +11211,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11283,7 +11229,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11301,7 +11247,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11319,7 +11265,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11337,7 +11283,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11355,7 +11301,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11373,7 +11319,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11391,7 +11337,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11409,7 +11355,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11427,7 +11373,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11445,7 +11391,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11463,7 +11409,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11481,7 +11427,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11499,7 +11445,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11517,7 +11463,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11535,7 +11481,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11553,7 +11499,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11571,7 +11517,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11589,7 +11535,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11607,7 +11553,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11625,7 +11571,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="str">
         <f t="shared" ref="B74:B137" si="4">IF(A74&lt;&gt;"",C74+D74,"")</f>
         <v/>
@@ -11643,7 +11589,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11661,7 +11607,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11679,7 +11625,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11697,7 +11643,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11715,7 +11661,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11733,7 +11679,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11751,7 +11697,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11769,7 +11715,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11787,7 +11733,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11805,7 +11751,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11823,7 +11769,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11841,7 +11787,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11859,7 +11805,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11877,7 +11823,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11895,7 +11841,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11913,7 +11859,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11931,7 +11877,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11949,7 +11895,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11967,7 +11913,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11985,7 +11931,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12003,7 +11949,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12021,7 +11967,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12039,7 +11985,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12057,7 +12003,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12075,7 +12021,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12093,7 +12039,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12111,7 +12057,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12129,7 +12075,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12147,7 +12093,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12165,7 +12111,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12183,7 +12129,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B105" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12201,7 +12147,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12219,7 +12165,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12237,7 +12183,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12255,7 +12201,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12273,7 +12219,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12291,7 +12237,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12309,7 +12255,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12327,7 +12273,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12345,7 +12291,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12363,7 +12309,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12381,7 +12327,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12399,7 +12345,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12417,7 +12363,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12435,7 +12381,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B119" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12453,7 +12399,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12471,7 +12417,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B121" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12489,7 +12435,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B122" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12507,7 +12453,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B123" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12525,7 +12471,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12543,7 +12489,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B125" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12561,7 +12507,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B126" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12579,7 +12525,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B127" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12597,7 +12543,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B128" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12615,7 +12561,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B129" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12633,7 +12579,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B130" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12651,7 +12597,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12669,7 +12615,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B132" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12687,7 +12633,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B133" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12705,7 +12651,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B134" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12723,7 +12669,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B135" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12741,7 +12687,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B136" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12759,7 +12705,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12777,7 +12723,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B138" s="3" t="str">
         <f t="shared" ref="B138:B201" si="8">IF(A138&lt;&gt;"",C138+D138,"")</f>
         <v/>
@@ -12795,7 +12741,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B139" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -12813,7 +12759,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B140" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -12831,7 +12777,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B141" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -12849,7 +12795,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B142" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -12867,7 +12813,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -12885,7 +12831,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B144" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -12903,7 +12849,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B145" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -12921,7 +12867,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B146" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -12939,7 +12885,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B147" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -12957,7 +12903,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B148" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -12975,7 +12921,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B149" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -12993,7 +12939,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13011,7 +12957,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B151" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13029,7 +12975,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B152" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13047,7 +12993,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B153" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13065,7 +13011,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B154" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13083,7 +13029,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B155" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13101,7 +13047,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B156" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13119,7 +13065,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B157" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13137,7 +13083,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B158" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13155,7 +13101,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B159" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13173,7 +13119,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B160" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13191,7 +13137,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B161" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13209,7 +13155,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B162" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13227,7 +13173,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B163" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13245,7 +13191,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B164" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13263,7 +13209,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B165" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13281,7 +13227,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B166" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13299,7 +13245,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B167" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13317,7 +13263,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B168" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13335,7 +13281,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B169" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13353,7 +13299,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B170" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13371,7 +13317,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B171" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13389,7 +13335,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B172" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13407,7 +13353,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B173" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13425,7 +13371,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B174" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13443,7 +13389,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B175" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13461,7 +13407,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B176" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13479,7 +13425,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B177" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13497,7 +13443,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B178" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13515,7 +13461,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B179" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13533,7 +13479,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B180" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13551,7 +13497,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B181" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13569,7 +13515,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B182" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13587,7 +13533,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B183" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13605,7 +13551,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B184" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13623,7 +13569,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B185" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13641,7 +13587,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B186" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13659,7 +13605,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B187" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13677,7 +13623,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B188" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13695,7 +13641,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B189" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13713,7 +13659,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B190" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13731,7 +13677,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B191" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13749,7 +13695,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B192" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13767,7 +13713,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B193" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13785,7 +13731,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B194" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13803,7 +13749,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B195" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13821,7 +13767,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B196" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13839,7 +13785,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B197" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13857,7 +13803,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B198" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13875,7 +13821,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B199" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13893,7 +13839,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B200" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13911,7 +13857,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B201" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13929,7 +13875,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B202" s="3" t="str">
         <f t="shared" ref="B202:B248" si="12">IF(A202&lt;&gt;"",C202+D202,"")</f>
         <v/>
@@ -13947,7 +13893,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B203" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -13965,7 +13911,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B204" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -13983,7 +13929,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B205" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14001,7 +13947,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B206" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14019,7 +13965,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B207" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14037,7 +13983,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B208" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14055,7 +14001,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B209" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14073,7 +14019,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B210" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14091,7 +14037,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B211" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14109,7 +14055,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B212" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14127,7 +14073,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B213" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14145,7 +14091,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B214" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14163,7 +14109,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B215" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14181,7 +14127,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B216" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14199,7 +14145,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B217" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14217,7 +14163,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B218" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14235,7 +14181,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B219" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14253,7 +14199,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B220" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14271,7 +14217,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B221" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14289,7 +14235,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B222" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14307,7 +14253,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B223" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14325,7 +14271,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B224" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14343,7 +14289,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B225" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14361,7 +14307,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B226" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14379,7 +14325,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B227" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14397,7 +14343,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B228" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14415,7 +14361,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B229" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14433,7 +14379,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B230" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14451,7 +14397,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B231" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14469,7 +14415,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B232" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14487,7 +14433,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B233" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14505,7 +14451,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B234" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14523,7 +14469,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B235" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14541,7 +14487,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B236" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14559,7 +14505,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B237" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14577,7 +14523,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B238" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14595,7 +14541,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B239" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14613,7 +14559,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B240" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14631,7 +14577,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B241" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14649,7 +14595,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B242" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14667,7 +14613,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B243" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14685,7 +14631,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B244" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14703,7 +14649,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B245" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14721,7 +14667,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B246" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14739,7 +14685,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B247" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -14757,7 +14703,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B248" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
